--- a/data/trans_bre/P57B_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P57B_R-Edad-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>6.06001460871244</v>
+        <v>6.060014608712443</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>2.94960248198213</v>
+        <v>2.949602481982132</v>
       </c>
     </row>
     <row r="5">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.878895675956504</v>
+        <v>1.849829012015249</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.0853245047259185</v>
+        <v>0.1854289697185734</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.82467984149188</v>
+        <v>11.24084205170947</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>14.91786562332328</v>
+        <v>18.19772408095859</v>
       </c>
     </row>
     <row r="7">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.7134041855188553</v>
+        <v>0.7134041855188545</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.1164767401343263</v>
+        <v>0.1164767401343262</v>
       </c>
     </row>
     <row r="8">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.796633202066589</v>
+        <v>-2.981353087139444</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3626868954436699</v>
+        <v>-0.3729437393647506</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.098524303329287</v>
+        <v>4.142211664500748</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.04176121719999</v>
+        <v>0.9116978189278863</v>
       </c>
     </row>
     <row r="10">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.856409411105769</v>
+        <v>-3.003118129742759</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.2960102019971846</v>
+        <v>-0.2978413993468556</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.944482424709323</v>
+        <v>2.890331361074024</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>0.4655608605317802</v>
+        <v>0.4466011095949299</v>
       </c>
     </row>
     <row r="13">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>1.971419689016997</v>
+        <v>1.971419689016994</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.1948309007753188</v>
+        <v>0.1948309007753184</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.122035944952684</v>
+        <v>-1.279838305833434</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.09083351437049836</v>
+        <v>-0.1082045739599907</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.941766592743886</v>
+        <v>4.92468871912199</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5896728328119671</v>
+        <v>0.603610158803069</v>
       </c>
     </row>
     <row r="16">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.5206233424481593</v>
+        <v>0.04573208514067478</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>-0.02922988745286766</v>
+        <v>-0.002368048042705831</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.829059149826755</v>
+        <v>7.525025690815518</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>0.5260393879210576</v>
+        <v>0.6056333236681051</v>
       </c>
     </row>
     <row r="19">
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>6.033576191334353</v>
+        <v>6.033576191334356</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.4815934442174326</v>
+        <v>0.4815934442174329</v>
       </c>
     </row>
     <row r="20">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>2.270143954547663</v>
+        <v>2.119510644675008</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.1593399301582566</v>
+        <v>0.1365967754144277</v>
       </c>
     </row>
     <row r="21">
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>9.412856122168463</v>
+        <v>9.785151256586959</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.9084165595798456</v>
+        <v>0.9082792368200562</v>
       </c>
     </row>
     <row r="22">
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>9.656749105974145</v>
+        <v>9.45713429724325</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>0.4296750629692179</v>
+        <v>0.3895775291928478</v>
       </c>
     </row>
     <row r="24">
@@ -856,10 +856,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>19.27059898775784</v>
+        <v>18.81436872893635</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>1.184940746198954</v>
+        <v>1.106898616252811</v>
       </c>
     </row>
     <row r="25">
@@ -874,10 +874,10 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>4.536064542895161</v>
+        <v>4.536064542895158</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.4439695531382528</v>
+        <v>0.4439695531382525</v>
       </c>
     </row>
     <row r="26">
@@ -888,10 +888,10 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>3.198209348367223</v>
+        <v>3.156127406571264</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.2890845516015</v>
+        <v>0.2822112365705701</v>
       </c>
     </row>
     <row r="27">
@@ -902,10 +902,10 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>5.947306844195406</v>
+        <v>5.936527735528781</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.6295241746117115</v>
+        <v>0.6268988555206939</v>
       </c>
     </row>
     <row r="28">
